--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="761"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="19140" windowHeight="7605" tabRatio="761"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜日报" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -62,30 +54,17 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>序号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>产品代码</t>
-    </r>
+        <scheme val="minor"/>
+      </rPr>
+      <t>序号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,7 +76,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品批号</t>
+      <t>产品代码</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,7 +89,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>卷号</t>
+      <t>产品批号</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,7 +102,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>填报人</t>
+      <t>卷号</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,50 +115,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>复核人</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">R </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中层B2物料占比：</t>
-  </si>
-  <si>
-    <t>工时效率：</t>
-  </si>
-  <si>
-    <t>=(R+T)/d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：</t>
+      <t>填报人</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,18 +128,50 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">废品重量
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(kg)</t>
-    </r>
+      <t>复核人</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中层B2物料占比：</t>
+  </si>
+  <si>
+    <t>工时效率：</t>
+  </si>
+  <si>
+    <t>=(R+T)/d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,7 +183,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">生产重量
+      <t xml:space="preserve">废品重量
 </t>
     </r>
     <r>
@@ -237,8 +206,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>生产数量
-（</t>
+      <t xml:space="preserve">生产重量
+</t>
     </r>
     <r>
       <rPr>
@@ -247,8 +216,11 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>m</t>
-    </r>
+      <t>(kg)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -257,13 +229,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>白班</t>
+      <t>生产数量
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -273,14 +249,30 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>白班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>□</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -413,21 +405,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -441,7 +433,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -450,7 +442,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -464,7 +456,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -473,7 +465,15 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -539,22 +539,22 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,53 +562,53 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -616,17 +616,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -636,7 +636,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -691,25 +691,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -730,7 +730,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,7 +754,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,6 +766,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -781,18 +790,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -805,9 +802,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -823,7 +823,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -868,9 +868,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -903,9 +903,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1111,26 +1111,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8" max="12" width="5.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="2" customWidth="1"/>
+    <col min="8" max="12" width="5.875" style="2" customWidth="1"/>
     <col min="13" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.625" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1145,40 +1145,40 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="47"/>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="N1" s="41"/>
+    </row>
+    <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="9"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -1221,17 +1221,17 @@
       <c r="N4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1260,11 +1260,11 @@
       <c r="P5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="Q5" s="51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -1379,7 +1379,7 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31">
         <v>12</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="24"/>
       <c r="B17" s="25" t="s">
         <v>21</v>
@@ -1556,32 +1556,32 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40" t="s">
+    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="48" t="s">
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-    </row>
-    <row r="19" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+    </row>
+    <row r="19" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="29"/>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -1591,18 +1591,18 @@
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1612,13 +1612,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.22" right="0.22" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="20" max="16383" man="1"/>
-  </rowBreaks>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="1048575" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1628,7 +1622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\301. 吹膜岗位记录表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="19140" windowHeight="7605" tabRatio="761"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="吹膜日报" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>生产指令：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +30,6 @@
   </si>
   <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       年  月  日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -255,9 +246,6 @@
   </si>
   <si>
     <r>
-      <t>白班</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -265,7 +253,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>□</t>
+      <t>加料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -274,11 +271,12 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-夜班</t>
-    </r>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -287,11 +285,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>加料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -300,57 +304,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>加料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加料</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t/>
     </r>
   </si>
@@ -382,33 +335,18 @@
   </si>
   <si>
     <t>合计=E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=X1*X2*X3/1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -571,19 +509,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -648,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,10 +643,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -733,23 +658,14 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,6 +682,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,35 +709,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,7 +781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -897,10 +813,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,7 +847,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1108,14 +1022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
@@ -1130,7 +1044,7 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1145,42 +1059,42 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="41"/>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="M1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:17" ht="30.75" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="9"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+    <row r="3" spans="1:17" ht="25.5" customHeight="1">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="44.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>1</v>
@@ -1189,64 +1103,58 @@
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="46" t="s">
+      <c r="O4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="40" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q4" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="26.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>28</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="G5" s="27"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="6"/>
@@ -1254,24 +1162,16 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" ht="26.25" customHeight="1">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="38"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
@@ -1287,14 +1187,12 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="26.25" customHeight="1">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="38"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -1310,14 +1208,12 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="26.25" customHeight="1">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="38"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -1333,14 +1229,12 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" ht="26.25" customHeight="1">
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="38"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
@@ -1356,14 +1250,12 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" ht="26.25" customHeight="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="38"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -1379,14 +1271,12 @@
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="26.25" customHeight="1">
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="38"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
@@ -1402,14 +1292,12 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="26.25" customHeight="1">
       <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="38"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
@@ -1425,14 +1313,12 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" ht="26.25" customHeight="1">
       <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="38"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
@@ -1448,14 +1334,12 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" ht="26.25" customHeight="1">
       <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="38"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
@@ -1471,14 +1355,12 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" ht="26.25" customHeight="1">
       <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="38"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
@@ -1494,81 +1376,81 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="31">
-        <v>12</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+    <row r="16" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25" t="s">
+      <c r="Q16" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+    </row>
+    <row r="18" spans="1:17" ht="25.5" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="47" t="s">
-        <v>24</v>
-      </c>
+      <c r="C18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
@@ -1581,34 +1463,11 @@
       <c r="P18" s="48"/>
       <c r="Q18" s="48"/>
     </row>
-    <row r="19" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29"/>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="F18:Q19"/>
+    <mergeCell ref="F17:Q18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.22" right="0.22" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1617,12 +1476,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6596D29-A286-0248-8147-FEE967C6C3E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19140" windowHeight="7605" tabRatio="761"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜日报" sheetId="8" r:id="rId1"/>
@@ -45,7 +51,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -341,23 +347,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,7 +377,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -380,7 +386,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -394,7 +400,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,7 +409,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -411,7 +417,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -625,16 +631,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +729,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -739,7 +745,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -781,7 +787,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,9 +819,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -847,6 +871,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1022,25 +1064,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:Q5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="2" customWidth="1"/>
-    <col min="8" max="12" width="5.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
+    <col min="8" max="12" width="5.83203125" style="2" customWidth="1"/>
     <col min="13" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="15.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1166,308 +1208,98 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="41"/>
     </row>
-    <row r="6" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+    <row r="6" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>19</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="34" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+    <row r="7" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
     </row>
-    <row r="8" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A12" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A13" s="5">
-        <v>9</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-    </row>
-    <row r="18" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="1" t="s">
+    <row r="8" spans="1:17" ht="25.5" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="F17:Q18"/>
+    <mergeCell ref="F7:Q8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.22" right="0.22" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1476,12 +1308,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E6596D29-A286-0248-8147-FEE967C6C3E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5D96B4BF-761A-2946-8517-351DDD8A9031}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,9 +640,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -673,9 +670,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -726,6 +720,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1078,9 +1093,10 @@
     <col min="3" max="3" width="7.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="50" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8" max="12" width="5.83203125" style="2" customWidth="1"/>
+    <col min="8" max="11" width="5.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="50" customWidth="1"/>
     <col min="13" max="16" width="9" style="2"/>
     <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
@@ -1094,41 +1110,41 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="47"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="44" t="s">
+      <c r="L1" s="47"/>
+      <c r="M1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="44"/>
+      <c r="N1" s="42"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
         <v>0</v>
@@ -1150,7 +1166,7 @@
       <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="48" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -1168,7 +1184,7 @@
       <c r="K4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="51" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="16" t="s">
@@ -1177,13 +1193,13 @@
       <c r="N4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="38" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1192,108 +1208,108 @@
         <v>1</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="35"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="39"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="31" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="53" t="s">
         <v>19</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="45" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5D96B4BF-761A-2946-8517-351DDD8A9031}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4877020A-B2E7-404D-8F9D-324C1B91E1F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜日报" sheetId="8" r:id="rId1"/>
@@ -470,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -573,6 +573,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -670,15 +694,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,15 +718,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -721,26 +757,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,22 +1107,24 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="41" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
     <col min="8" max="11" width="5.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="50" customWidth="1"/>
-    <col min="13" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="41" customWidth="1"/>
+    <col min="13" max="14" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="7.1640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1110,41 +1136,42 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="47"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="38"/>
+      <c r="O1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="42"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="53"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="9"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
         <v>0</v>
@@ -1166,7 +1193,7 @@
       <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="39" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -1184,7 +1211,7 @@
       <c r="K4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="42" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="16" t="s">
@@ -1193,13 +1220,13 @@
       <c r="N4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="36" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1208,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="33"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
@@ -1217,12 +1244,12 @@
       <c r="I5" s="8"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="52"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="39"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1">
       <c r="A6" s="23"/>
@@ -1234,59 +1261,59 @@
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="27"/>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="32" t="s">
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="43" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1">
       <c r="A8" s="28"/>
@@ -1298,24 +1325,24 @@
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:G3"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="F7:Q8"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.22" right="0.22" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4877020A-B2E7-404D-8F9D-324C1B91E1F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD32C0E3-30D4-C240-BA03-CA3AB781ECB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜日报" sheetId="8" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>中层B2物料占比：</t>
   </si>
   <si>
-    <t>工时效率：</t>
-  </si>
-  <si>
     <t>=(R+T)/d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,6 +339,9 @@
   <si>
     <t>合计=E</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时效率%：</t>
   </si>
 </sst>
 </file>
@@ -367,12 +367,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -430,17 +424,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -603,35 +602,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -640,131 +630,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,236 +1100,237 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="6" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="41" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="5.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="2" customWidth="1"/>
+    <col min="10" max="11" width="5.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="34" customWidth="1"/>
     <col min="13" max="14" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="7.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="2" customWidth="1"/>
     <col min="17" max="17" width="11" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="38"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="38"/>
-      <c r="O1" s="52" t="s">
+      <c r="L1" s="31"/>
+      <c r="O1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="53"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>32</v>
+      <c r="Q4" s="30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="26.25" customHeight="1">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="37"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="40" t="s">
+      <c r="C6" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44" t="s">
-        <v>35</v>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="47" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BD32C0E3-30D4-C240-BA03-CA3AB781ECB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DB67DCD5-43D5-454F-BF2C-4BCF5185D690}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -572,37 +572,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +687,30 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,35 +729,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,7 +1073,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1137,35 +1110,35 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="31"/>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="43"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
       <c r="H2" s="6"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
         <v>0</v>
@@ -1228,22 +1201,22 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="51"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1">
       <c r="A6" s="20"/>
@@ -1258,29 +1231,29 @@
       <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="46" t="s">
+      <c r="I6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="47" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1294,20 +1267,20 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1">
       <c r="A8" s="24"/>
@@ -1319,18 +1292,18 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DB67DCD5-43D5-454F-BF2C-4BCF5185D690}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2363EC42-32F3-6D44-98E7-FFF63BBE97CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜日报" sheetId="8" r:id="rId1"/>
@@ -352,7 +352,7 @@
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,13 +430,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
@@ -578,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,19 +683,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -731,6 +715,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,7 +1060,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="F7" sqref="F7:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1110,35 +1097,35 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="31"/>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="6"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
         <v>0</v>
@@ -1202,21 +1189,21 @@
         <v>1</v>
       </c>
       <c r="B5" s="36"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
-      <c r="L5" s="40"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
       <c r="P5" s="36"/>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1">
       <c r="A6" s="20"/>
@@ -1231,29 +1218,29 @@
       <c r="F6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="39" t="s">
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1267,20 +1254,20 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1">
       <c r="A8" s="24"/>
@@ -1292,18 +1279,18 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="19"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
+++ b/mySystem/mySystem/xls/Extrusion/B/SOP-MFG-301-R02A 吹膜生产日报表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/Documents/workspace/mitcpro/mySystem/mySystem/xls/Extrusion/B/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\Extrusion\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2363EC42-32F3-6D44-98E7-FFF63BBE97CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="22640" windowHeight="11800" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="465" windowWidth="22635" windowHeight="11805" tabRatio="761"/>
   </bookViews>
   <sheets>
     <sheet name="吹膜日报" sheetId="8" r:id="rId1"/>
@@ -51,7 +50,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -347,23 +346,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,7 +370,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -380,7 +379,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -394,7 +393,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,7 +402,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -411,7 +410,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -430,10 +429,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="SimSun"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -571,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,9 +596,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -614,13 +620,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,20 +686,8 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,12 +710,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,7 +743,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -812,23 +818,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -864,23 +853,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1056,241 +1028,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:Q8"/>
+      <selection activeCell="A5" sqref="A5:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="33" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
     <col min="8" max="9" width="7.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="5.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="34" customWidth="1"/>
+    <col min="10" max="11" width="5.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.875" style="33" customWidth="1"/>
     <col min="13" max="14" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.75" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="31"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="31"/>
-      <c r="O1" s="47" t="s">
+      <c r="L1" s="30"/>
+      <c r="O1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="43">
         <v>1</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="33" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="43" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1305,12 +1277,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
